--- a/team_specific_matrix/Hampton_A.xlsx
+++ b/team_specific_matrix/Hampton_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.221105527638191</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C2">
-        <v>0.5376884422110553</v>
+        <v>0.528957528957529</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1507537688442211</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09045226130653267</v>
+        <v>0.09266409266409266</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02830188679245283</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7358490566037735</v>
+        <v>0.7318840579710145</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2358490566037736</v>
+        <v>0.2318840579710145</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03225806451612903</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="P4">
-        <v>0.5806451612903226</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3870967741935484</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04081632653061224</v>
+        <v>0.03763440860215054</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0272108843537415</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3537414965986395</v>
+        <v>0.3387096774193548</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1768707482993197</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="R6">
-        <v>0.06802721088435375</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="S6">
         <v>0.3333333333333333</v>
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1015625</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0234375</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0625</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.140625</v>
+        <v>0.1129943502824859</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03125</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.171875</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="R7">
-        <v>0.0625</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="S7">
-        <v>0.40625</v>
+        <v>0.4576271186440678</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08268733850129199</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007751937984496124</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05684754521963824</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.144702842377261</v>
+        <v>0.1385281385281385</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.020671834625323</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1576227390180878</v>
+        <v>0.1601731601731602</v>
       </c>
       <c r="R8">
-        <v>0.1085271317829457</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="S8">
-        <v>0.4211886304909561</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="F9">
-        <v>0.05333333333333334</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1066666666666667</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04666666666666667</v>
+        <v>0.05235602094240838</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.14</v>
+        <v>0.1465968586387434</v>
       </c>
       <c r="R9">
-        <v>0.1133333333333333</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="S9">
-        <v>0.44</v>
+        <v>0.4031413612565445</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1028761061946903</v>
+        <v>0.1040763226366002</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02433628318584071</v>
+        <v>0.02515177797051171</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06084070796460177</v>
+        <v>0.05724197745013009</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1139380530973451</v>
+        <v>0.1196877710320902</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02212389380530973</v>
+        <v>0.02428447528187338</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2256637168141593</v>
+        <v>0.2272333044232437</v>
       </c>
       <c r="R10">
-        <v>0.07079646017699115</v>
+        <v>0.07198612315698179</v>
       </c>
       <c r="S10">
-        <v>0.379424778761062</v>
+        <v>0.370338248048569</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1530054644808743</v>
+        <v>0.164</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07650273224043716</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="K11">
-        <v>0.1748633879781421</v>
+        <v>0.184</v>
       </c>
       <c r="L11">
-        <v>0.5792349726775956</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01639344262295082</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7217391304347827</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1391304347826087</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K12">
-        <v>0.02608695652173913</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="L12">
-        <v>0.0782608695652174</v>
+        <v>0.06535947712418301</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03478260869565217</v>
+        <v>0.03267973856209151</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8076923076923077</v>
+        <v>0.78125</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1923076923076923</v>
+        <v>0.21875</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01973684210526316</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1710526315789474</v>
+        <v>0.1472081218274112</v>
       </c>
       <c r="I15">
-        <v>0.05263157894736842</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="J15">
-        <v>0.3421052631578947</v>
+        <v>0.3350253807106599</v>
       </c>
       <c r="K15">
-        <v>0.05263157894736842</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0131578947368421</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03289473684210526</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3157894736842105</v>
+        <v>0.3197969543147208</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1707317073170732</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I16">
-        <v>0.0975609756097561</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="J16">
-        <v>0.4227642276422764</v>
+        <v>0.453416149068323</v>
       </c>
       <c r="K16">
-        <v>0.08943089430894309</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01626016260162602</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06504065040650407</v>
+        <v>0.06832298136645963</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1382113821138211</v>
+        <v>0.124223602484472</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02719033232628399</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1873111782477341</v>
+        <v>0.1761904761904762</v>
       </c>
       <c r="I17">
-        <v>0.08157099697885196</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J17">
-        <v>0.4138972809667674</v>
+        <v>0.4214285714285714</v>
       </c>
       <c r="K17">
-        <v>0.08459214501510574</v>
+        <v>0.09047619047619047</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02416918429003021</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="N17">
-        <v>0.003021148036253776</v>
+        <v>0.002380952380952381</v>
       </c>
       <c r="O17">
-        <v>0.05438066465256797</v>
+        <v>0.05476190476190476</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1238670694864048</v>
+        <v>0.1238095238095238</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007142857142857143</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2357142857142857</v>
+        <v>0.1977401129943503</v>
       </c>
       <c r="I18">
-        <v>0.1142857142857143</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="J18">
-        <v>0.3571428571428572</v>
+        <v>0.384180790960452</v>
       </c>
       <c r="K18">
-        <v>0.07857142857142857</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01428571428571429</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="N18">
-        <v>0.007142857142857143</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="O18">
-        <v>0.04285714285714286</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1428571428571428</v>
+        <v>0.1299435028248588</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01938775510204082</v>
+        <v>0.01885245901639344</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2530612244897959</v>
+        <v>0.2508196721311475</v>
       </c>
       <c r="I19">
-        <v>0.08775510204081632</v>
+        <v>0.08852459016393442</v>
       </c>
       <c r="J19">
-        <v>0.3489795918367347</v>
+        <v>0.3524590163934426</v>
       </c>
       <c r="K19">
-        <v>0.08979591836734693</v>
+        <v>0.09754098360655737</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01326530612244898</v>
+        <v>0.0139344262295082</v>
       </c>
       <c r="N19">
-        <v>0.002040816326530612</v>
+        <v>0.001639344262295082</v>
       </c>
       <c r="O19">
-        <v>0.05612244897959184</v>
+        <v>0.05409836065573771</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1295918367346939</v>
+        <v>0.1221311475409836</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Hampton_A.xlsx
+++ b/team_specific_matrix/Hampton_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2162162162162162</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="C2">
-        <v>0.528957528957529</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1621621621621622</v>
+        <v>0.1654929577464789</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09266409266409266</v>
+        <v>0.0880281690140845</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007246376811594203</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C3">
-        <v>0.007246376811594203</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02173913043478261</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7318840579710145</v>
+        <v>0.7320261437908496</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2318840579710145</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05263157894736842</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02631578947368421</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P4">
-        <v>0.5789473684210527</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3421052631578947</v>
+        <v>0.3255813953488372</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03763440860215054</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02688172043010753</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3387096774193548</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005376344086021506</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1827956989247312</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="R6">
-        <v>0.07526881720430108</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0847457627118644</v>
+        <v>0.078125</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02259887005649718</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06779661016949153</v>
+        <v>0.06770833333333333</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1129943502824859</v>
+        <v>0.125</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03389830508474576</v>
+        <v>0.03125</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1412429378531073</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="R7">
-        <v>0.07909604519774012</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="S7">
-        <v>0.4576271186440678</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08658008658008658</v>
+        <v>0.08531746031746032</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008658008658008658</v>
+        <v>0.00992063492063492</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05627705627705628</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1385281385281385</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01731601731601732</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1601731601731602</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="R8">
-        <v>0.1038961038961039</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="S8">
-        <v>0.4285714285714285</v>
+        <v>0.4325396825396826</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1099476439790576</v>
+        <v>0.1059907834101382</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01570680628272251</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="E9">
-        <v>0.005235602094240838</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="F9">
-        <v>0.06282722513089005</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1047120418848168</v>
+        <v>0.1105990783410138</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.05235602094240838</v>
+        <v>0.05069124423963134</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1465968586387434</v>
+        <v>0.1474654377880184</v>
       </c>
       <c r="R9">
-        <v>0.09947643979057591</v>
+        <v>0.09216589861751152</v>
       </c>
       <c r="S9">
-        <v>0.4031413612565445</v>
+        <v>0.4147465437788018</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1040763226366002</v>
+        <v>0.10254433307633</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02515177797051171</v>
+        <v>0.02544333076329992</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0007710100231303007</v>
       </c>
       <c r="F10">
-        <v>0.05724197745013009</v>
+        <v>0.06013878180416345</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1196877710320902</v>
+        <v>0.1187355435620663</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02428447528187338</v>
+        <v>0.02313030069390902</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2272333044232437</v>
+        <v>0.2274479568234387</v>
       </c>
       <c r="R10">
-        <v>0.07198612315698179</v>
+        <v>0.07401696222050887</v>
       </c>
       <c r="S10">
-        <v>0.370338248048569</v>
+        <v>0.3677717810331534</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.164</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07199999999999999</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K11">
-        <v>0.184</v>
+        <v>0.1814814814814815</v>
       </c>
       <c r="L11">
-        <v>0.5679999999999999</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.012</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1176470588235294</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="K12">
-        <v>0.0196078431372549</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="L12">
-        <v>0.06535947712418301</v>
+        <v>0.06547619047619048</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03267973856209151</v>
+        <v>0.02976190476190476</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.78125</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.21875</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02030456852791878</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1472081218274112</v>
+        <v>0.1377777777777778</v>
       </c>
       <c r="I15">
-        <v>0.07106598984771574</v>
+        <v>0.08444444444444445</v>
       </c>
       <c r="J15">
-        <v>0.3350253807106599</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.05076142131979695</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01522842639593909</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04060913705583756</v>
+        <v>0.03555555555555556</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3197969543147208</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1428571428571428</v>
+        <v>0.15</v>
       </c>
       <c r="I16">
-        <v>0.09316770186335403</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="J16">
-        <v>0.453416149068323</v>
+        <v>0.45</v>
       </c>
       <c r="K16">
-        <v>0.09316770186335403</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02484472049689441</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06832298136645963</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.124223602484472</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02857142857142857</v>
+        <v>0.02575107296137339</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1761904761904762</v>
+        <v>0.1802575107296137</v>
       </c>
       <c r="I17">
-        <v>0.08333333333333333</v>
+        <v>0.07939914163090128</v>
       </c>
       <c r="J17">
-        <v>0.4214285714285714</v>
+        <v>0.4270386266094421</v>
       </c>
       <c r="K17">
-        <v>0.09047619047619047</v>
+        <v>0.08798283261802575</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01904761904761905</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="N17">
-        <v>0.002380952380952381</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="O17">
-        <v>0.05476190476190476</v>
+        <v>0.05579399141630902</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1238095238095238</v>
+        <v>0.1244635193133047</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01694915254237288</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1977401129943503</v>
+        <v>0.1897435897435897</v>
       </c>
       <c r="I18">
-        <v>0.1016949152542373</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="J18">
-        <v>0.384180790960452</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K18">
-        <v>0.0847457627118644</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01129943502824859</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="N18">
-        <v>0.005649717514124294</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="O18">
-        <v>0.06779661016949153</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1299435028248588</v>
+        <v>0.1487179487179487</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01885245901639344</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2508196721311475</v>
+        <v>0.2412280701754386</v>
       </c>
       <c r="I19">
-        <v>0.08852459016393442</v>
+        <v>0.09137426900584796</v>
       </c>
       <c r="J19">
-        <v>0.3524590163934426</v>
+        <v>0.3559941520467836</v>
       </c>
       <c r="K19">
-        <v>0.09754098360655737</v>
+        <v>0.0935672514619883</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0139344262295082</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="N19">
-        <v>0.001639344262295082</v>
+        <v>0.002923976608187134</v>
       </c>
       <c r="O19">
-        <v>0.05409836065573771</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1221311475409836</v>
+        <v>0.1198830409356725</v>
       </c>
     </row>
   </sheetData>
